--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>TargetVariable</t>
   </si>
   <si>
-    <t>CUSTOMER_BE</t>
-  </si>
-  <si>
     <t>Customer BE</t>
   </si>
   <si>
@@ -177,13 +174,16 @@
   </si>
   <si>
     <t>BACK_TESTING_BE_V</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -208,14 +208,6 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -916,14 +908,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
@@ -965,19 +957,19 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -985,22 +977,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1015,15 +1007,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1062,16 +1054,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1079,16 +1071,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -177,6 +177,102 @@
   </si>
   <si>
     <t>COUNTERPARTY_BIB</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_3</t>
+  </si>
+  <si>
+    <t>BE_IND_3</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_1</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_2</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_7</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_8</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_9</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_14</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_16</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_34</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_35</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_40</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_44</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_48</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_51</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_55</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BE_IND_56</t>
+  </si>
+  <si>
+    <t>BE_IND_1</t>
+  </si>
+  <si>
+    <t>BE_IND_2</t>
+  </si>
+  <si>
+    <t>BE_IND_7</t>
+  </si>
+  <si>
+    <t>BE_IND_8</t>
+  </si>
+  <si>
+    <t>BE_IND_9</t>
+  </si>
+  <si>
+    <t>BE_IND_14</t>
+  </si>
+  <si>
+    <t>BE_IND_16</t>
+  </si>
+  <si>
+    <t>BE_IND_34</t>
+  </si>
+  <si>
+    <t>BE_IND_35</t>
+  </si>
+  <si>
+    <t>BE_IND_40</t>
+  </si>
+  <si>
+    <t>BE_IND_44</t>
+  </si>
+  <si>
+    <t>BE_IND_48</t>
+  </si>
+  <si>
+    <t>BE_IND_51</t>
+  </si>
+  <si>
+    <t>BE_IND_55</t>
+  </si>
+  <si>
+    <t>BE_IND_56</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A21" activeCellId="3" sqref="A11:XFD11 A14:XFD14 A20:XFD20 A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,6 +1177,278 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,12 +144,6 @@
     <t>CUSTOMER_ANALYSIS_UNIT_BE</t>
   </si>
   <si>
-    <t>CUSTOMER_BE_SNDG</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_TARGET</t>
-  </si>
-  <si>
     <t>BE_SNDG</t>
   </si>
   <si>
@@ -179,57 +168,9 @@
     <t>COUNTERPARTY_BIB</t>
   </si>
   <si>
-    <t>CUSTOMER_BE_IND_3</t>
-  </si>
-  <si>
     <t>BE_IND_3</t>
   </si>
   <si>
-    <t>CUSTOMER_BE_IND_1</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_2</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_7</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_8</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_9</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_14</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_16</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_34</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_35</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_40</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_44</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_48</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_51</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_55</t>
-  </si>
-  <si>
-    <t>CUSTOMER_BE_IND_56</t>
-  </si>
-  <si>
     <t>BE_IND_1</t>
   </si>
   <si>
@@ -273,6 +214,60 @@
   </si>
   <si>
     <t>BE_IND_56</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_SNDG</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_TARGET</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_1</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_2</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_3</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_7</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_8</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_9</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_14</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_16</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_34</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_35</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_40</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_44</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_48</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_51</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_55</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_56</t>
   </si>
 </sst>
 </file>
@@ -782,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,7 +812,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1004,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1053,19 +1048,19 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,7 +1068,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1085,10 +1080,10 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1103,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" activeCellId="3" sqref="A11:XFD11 A14:XFD14 A20:XFD20 A21:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,16 +1145,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1167,16 +1162,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,16 +1179,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,16 +1196,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,16 +1213,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,16 +1230,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,16 +1247,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,16 +1264,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,16 +1281,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,16 +1298,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,16 +1315,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,16 +1332,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,16 +1349,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,16 +1366,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1388,16 +1383,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,16 +1400,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1422,16 +1417,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,16 +1434,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="240">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -268,16 +273,539 @@
   </si>
   <si>
     <t>COUNTERPARTY_BIB_IND_56</t>
+  </si>
+  <si>
+    <t>BE_IND_58</t>
+  </si>
+  <si>
+    <t>BE_IND_59</t>
+  </si>
+  <si>
+    <t>BE_IND_60</t>
+  </si>
+  <si>
+    <t>BE_IND_61</t>
+  </si>
+  <si>
+    <t>BE_IND_62</t>
+  </si>
+  <si>
+    <t>BE_IND_63</t>
+  </si>
+  <si>
+    <t>BE_IND_64</t>
+  </si>
+  <si>
+    <t>BE_IND_66</t>
+  </si>
+  <si>
+    <t>BE_IND_68</t>
+  </si>
+  <si>
+    <t>BE_IND_69</t>
+  </si>
+  <si>
+    <t>BE_IND_70</t>
+  </si>
+  <si>
+    <t>BE_IND_71</t>
+  </si>
+  <si>
+    <t>BE_IND_74</t>
+  </si>
+  <si>
+    <t>BE_IND_75</t>
+  </si>
+  <si>
+    <t>BE_IND_76</t>
+  </si>
+  <si>
+    <t>BE_IND_77</t>
+  </si>
+  <si>
+    <t>BE_IND_78</t>
+  </si>
+  <si>
+    <t>BE_IND_79</t>
+  </si>
+  <si>
+    <t>BE_IND_80</t>
+  </si>
+  <si>
+    <t>BE_IND_81</t>
+  </si>
+  <si>
+    <t>BE_IND_82</t>
+  </si>
+  <si>
+    <t>BE_IND_83</t>
+  </si>
+  <si>
+    <t>BE_IND_84</t>
+  </si>
+  <si>
+    <t>BE_IND_85</t>
+  </si>
+  <si>
+    <t>BE_IND_86</t>
+  </si>
+  <si>
+    <t>BE_IND_87</t>
+  </si>
+  <si>
+    <t>BE_IND_88</t>
+  </si>
+  <si>
+    <t>BE_IND_89</t>
+  </si>
+  <si>
+    <t>BE_IND_90</t>
+  </si>
+  <si>
+    <t>BE_IND_92</t>
+  </si>
+  <si>
+    <t>BE_IND_94</t>
+  </si>
+  <si>
+    <t>BE_IND_95</t>
+  </si>
+  <si>
+    <t>BE_IND_96</t>
+  </si>
+  <si>
+    <t>BE_IND_97</t>
+  </si>
+  <si>
+    <t>BE_IND_98</t>
+  </si>
+  <si>
+    <t>BE_IND_99</t>
+  </si>
+  <si>
+    <t>BE_IND_100</t>
+  </si>
+  <si>
+    <t>BE_IND_102</t>
+  </si>
+  <si>
+    <t>BE_IND_103</t>
+  </si>
+  <si>
+    <t>BE_IND_104</t>
+  </si>
+  <si>
+    <t>BE_IND_105</t>
+  </si>
+  <si>
+    <t>BE_IND_106</t>
+  </si>
+  <si>
+    <t>BE_IND_107</t>
+  </si>
+  <si>
+    <t>BE_IND_108</t>
+  </si>
+  <si>
+    <t>BE_IND_109</t>
+  </si>
+  <si>
+    <t>BE_IND_110</t>
+  </si>
+  <si>
+    <t>BE_IND_111</t>
+  </si>
+  <si>
+    <t>BE_IND_112</t>
+  </si>
+  <si>
+    <t>BE_IND_113</t>
+  </si>
+  <si>
+    <t>BE_IND_114</t>
+  </si>
+  <si>
+    <t>BE_IND_115</t>
+  </si>
+  <si>
+    <t>BE_IND_116</t>
+  </si>
+  <si>
+    <t>BE_IND_118</t>
+  </si>
+  <si>
+    <t>BE_IND_120</t>
+  </si>
+  <si>
+    <t>BE_IND_124</t>
+  </si>
+  <si>
+    <t>BE_IND_125</t>
+  </si>
+  <si>
+    <t>BE_IND_126</t>
+  </si>
+  <si>
+    <t>BE_IND_127</t>
+  </si>
+  <si>
+    <t>BE_IND_128</t>
+  </si>
+  <si>
+    <t>BE_IND_129</t>
+  </si>
+  <si>
+    <t>BE_IND_130</t>
+  </si>
+  <si>
+    <t>BE_IND_131</t>
+  </si>
+  <si>
+    <t>BE_IND_132</t>
+  </si>
+  <si>
+    <t>BE_IND_133</t>
+  </si>
+  <si>
+    <t>BE_IND_172</t>
+  </si>
+  <si>
+    <t>BE_IND_173</t>
+  </si>
+  <si>
+    <t>BE_IND_174</t>
+  </si>
+  <si>
+    <t>BE_IND_175</t>
+  </si>
+  <si>
+    <t>BE_IND_180</t>
+  </si>
+  <si>
+    <t>BE_IND_181</t>
+  </si>
+  <si>
+    <t>BE_IND_182</t>
+  </si>
+  <si>
+    <t>BE_IND_183</t>
+  </si>
+  <si>
+    <t>BE_IND_186</t>
+  </si>
+  <si>
+    <t>BE_IND_187</t>
+  </si>
+  <si>
+    <t>BE_IND_188</t>
+  </si>
+  <si>
+    <t>BE_IND_193</t>
+  </si>
+  <si>
+    <t>BE_IND_197</t>
+  </si>
+  <si>
+    <t>BE_IND_201</t>
+  </si>
+  <si>
+    <t>BE_IND_205</t>
+  </si>
+  <si>
+    <t>BE_IND_211</t>
+  </si>
+  <si>
+    <t>BE_IND_212</t>
+  </si>
+  <si>
+    <t>BE_IND_213</t>
+  </si>
+  <si>
+    <t>BE_IND_215</t>
+  </si>
+  <si>
+    <t>BE_IND_216</t>
+  </si>
+  <si>
+    <t>BE_IND_217</t>
+  </si>
+  <si>
+    <t>BE_IND_218</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_58</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_59</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_60</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_61</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_62</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_63</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_64</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_66</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_68</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_69</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_70</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_71</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_74</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_75</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_76</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_77</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_78</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_79</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_80</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_81</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_82</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_83</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_84</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_85</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_86</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_87</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_88</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_89</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_90</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_92</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_94</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_95</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_96</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_97</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_98</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_99</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_100</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_102</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_103</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_104</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_105</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_106</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_107</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_108</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_109</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_110</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_111</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_112</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_113</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_114</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_115</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_116</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_118</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_120</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_124</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_125</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_126</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_127</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_128</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_129</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_130</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_131</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_132</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_133</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_172</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_173</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_174</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_175</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_180</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_181</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_182</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_183</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_186</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_187</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_188</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_193</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_197</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_201</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_205</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_211</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_212</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_213</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_215</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_216</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_217</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_218</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,6 +827,13 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -323,19 +858,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Variable" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -989,7 +1527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1096,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,6 +1982,1468 @@
       </c>
       <c r="F20" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>211</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" t="s">
+        <v>217</v>
+      </c>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="s">
+        <v>230</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" t="s">
+        <v>231</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>232</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" t="s">
+        <v>233</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" t="s">
+        <v>234</v>
+      </c>
+      <c r="E101" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" t="s">
+        <v>236</v>
+      </c>
+      <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" t="s">
+        <v>238</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>239</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -44,30 +44,6 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>CREATE, MODIFY, CREATE/MODIFY, DELETE</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="240">
   <si>
@@ -137,15 +113,6 @@
     <t>AnalyticalTable</t>
   </si>
   <si>
-    <t>TargetVariable</t>
-  </si>
-  <si>
-    <t>Customer BE</t>
-  </si>
-  <si>
-    <t>Customer Banche Estere</t>
-  </si>
-  <si>
     <t>CUSTOMER_ANALYSIS_UNIT_BE</t>
   </si>
   <si>
@@ -789,13 +756,22 @@
   </si>
   <si>
     <t>COUNTERPARTY_BIB_IND_218</t>
+  </si>
+  <si>
+    <t>LIB_EWS_BE.ExternalInfo();</t>
+  </si>
+  <si>
+    <t>Counterparty BIB</t>
+  </si>
+  <si>
+    <t>OUTPUT_WEB_BE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -834,6 +810,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -900,8 +884,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -926,150 +910,6 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1534,28 +1374,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1567,9 +1406,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1586,49 +1424,48 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1636,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1683,16 +1520,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1700,16 +1537,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,16 +1554,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,16 +1571,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,16 +1588,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,16 +1605,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,16 +1622,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1802,16 +1639,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,16 +1656,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,16 +1673,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,16 +1690,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,16 +1707,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,16 +1724,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,16 +1741,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1921,16 +1758,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,16 +1775,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,16 +1792,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,16 +1809,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,16 +1826,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,16 +1843,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2023,16 +1860,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,16 +1877,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,16 +1894,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,16 +1911,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,16 +1928,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,16 +1945,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2125,16 +1962,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2142,16 +1979,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,16 +1996,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2176,16 +2013,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,16 +2030,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,16 +2047,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,16 +2064,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2244,16 +2081,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,16 +2098,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2278,16 +2115,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,16 +2132,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2312,16 +2149,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2329,16 +2166,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2346,16 +2183,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,16 +2200,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,16 +2217,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,16 +2234,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,16 +2251,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,16 +2268,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,16 +2285,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,16 +2302,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2482,16 +2319,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,16 +2336,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2516,16 +2353,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2533,16 +2370,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2550,16 +2387,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,16 +2404,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,16 +2421,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,16 +2438,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2618,16 +2455,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,16 +2472,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,16 +2489,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,16 +2506,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2686,16 +2523,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,16 +2540,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2720,16 +2557,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2737,16 +2574,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,16 +2591,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,16 +2608,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,16 +2625,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,16 +2642,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2822,16 +2659,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,16 +2676,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,16 +2693,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2873,16 +2710,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2890,16 +2727,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,16 +2744,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2924,16 +2761,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,16 +2778,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2958,16 +2795,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,16 +2812,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,16 +2829,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3009,16 +2846,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,16 +2863,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3043,16 +2880,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3060,16 +2897,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3077,16 +2914,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,16 +2931,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,16 +2948,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,16 +2965,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,16 +2982,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3162,16 +2999,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3179,16 +3016,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,16 +3033,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,16 +3050,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3230,16 +3067,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3247,16 +3084,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,16 +3101,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3281,16 +3118,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3298,16 +3135,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,16 +3152,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,16 +3169,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,16 +3186,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,16 +3203,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,16 +3237,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,16 +3254,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C105" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,16 +3271,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="242">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -765,13 +765,19 @@
   </si>
   <si>
     <t>OUTPUT_WEB_BE</t>
+  </si>
+  <si>
+    <t>BE_SEGMENT</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_SEGMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -790,12 +796,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -810,14 +818,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1377,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1394,7 +1394,7 @@
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1471,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,21 +1549,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
+      <c r="F5" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,16 +1571,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,16 +1588,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,16 +1605,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1622,16 +1622,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,16 +1639,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1656,16 +1656,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,16 +1673,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1690,16 +1690,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,16 +1707,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,16 +1724,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,16 +1741,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,16 +1758,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,16 +1775,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,16 +1792,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,33 +1809,33 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,16 +1843,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,16 +1860,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,16 +1877,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,16 +1894,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,16 +1911,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,16 +1928,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,16 +1945,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,16 +1962,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,16 +1979,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,16 +1996,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,16 +2013,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2030,16 +2030,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2047,16 +2047,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,16 +2064,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,16 +2081,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,16 +2098,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,16 +2115,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,16 +2132,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,16 +2149,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,16 +2166,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,16 +2183,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,16 +2200,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,16 +2217,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,16 +2234,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2251,16 +2251,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,16 +2268,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,16 +2285,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,16 +2302,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,16 +2319,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,16 +2336,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2353,16 +2353,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2370,16 +2370,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,16 +2387,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2404,16 +2404,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,16 +2421,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,16 +2438,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,16 +2455,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,16 +2472,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,16 +2489,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,16 +2506,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,16 +2523,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,16 +2540,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2557,16 +2557,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2574,16 +2574,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,16 +2591,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,16 +2608,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,16 +2625,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2642,16 +2642,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,16 +2659,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2676,16 +2676,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,16 +2693,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,16 +2710,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,16 +2727,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,16 +2744,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,16 +2761,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,16 +2778,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,16 +2795,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,16 +2812,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,16 +2829,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,16 +2846,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,16 +2863,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,16 +2880,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,16 +2897,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,16 +2914,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,16 +2931,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2948,16 +2948,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,16 +2965,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,16 +2982,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,16 +2999,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,16 +3016,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,16 +3033,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3050,16 +3050,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,16 +3067,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,16 +3084,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,16 +3101,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,16 +3118,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,16 +3135,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3152,16 +3152,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,16 +3169,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3186,16 +3186,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,16 +3203,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,16 +3237,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,16 +3254,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,15 +3271,32 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
         <v>236</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>236</v>
       </c>
-      <c r="E106" t="s">
-        <v>30</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
         <v>150</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="244">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -771,6 +771,12 @@
   </si>
   <si>
     <t>COUNTERPARTY_BIB_SEGMENT</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_15</t>
+  </si>
+  <si>
+    <t>BE_IND_15</t>
   </si>
 </sst>
 </file>
@@ -1471,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1491,7 @@
     <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1690,16 +1696,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,16 +1713,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,16 +1730,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,16 +1747,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,16 +1764,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,16 +1781,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,16 +1798,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,16 +1815,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,33 +1832,33 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,16 +1866,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,16 +1883,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,16 +1900,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,16 +1917,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,16 +1934,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,16 +1951,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,16 +1968,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,16 +1985,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,16 +2002,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,16 +2019,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2030,16 +2036,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2047,16 +2053,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,16 +2070,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,16 +2087,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,16 +2104,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,16 +2121,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,16 +2138,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,16 +2155,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,16 +2172,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,16 +2189,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,16 +2206,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,16 +2223,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,16 +2240,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2251,16 +2257,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,16 +2274,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,16 +2291,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,16 +2308,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,16 +2325,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,16 +2342,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2353,16 +2359,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2370,16 +2376,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,16 +2393,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2404,16 +2410,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,16 +2427,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,16 +2444,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,16 +2461,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,16 +2478,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,16 +2495,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,16 +2512,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,16 +2529,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,16 +2546,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2557,16 +2563,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2574,16 +2580,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,16 +2597,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,16 +2614,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,16 +2631,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2642,16 +2648,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,16 +2665,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2676,16 +2682,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,16 +2699,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,16 +2716,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,16 +2733,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,16 +2750,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,16 +2767,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,16 +2784,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,16 +2801,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,16 +2818,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,16 +2835,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,16 +2852,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,16 +2869,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,16 +2886,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,16 +2903,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,16 +2920,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,16 +2937,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2948,16 +2954,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,16 +2971,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,16 +2988,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,16 +3005,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,16 +3022,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,16 +3039,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3050,16 +3056,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,16 +3073,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,16 +3090,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,16 +3107,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,16 +3124,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,16 +3141,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3152,16 +3158,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,16 +3175,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3186,16 +3192,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,16 +3209,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,16 +3226,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,16 +3243,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,16 +3260,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,16 +3277,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,15 +3294,32 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
         <v>236</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>236</v>
       </c>
-      <c r="E107" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3311,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="2"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="254">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -777,6 +777,36 @@
   </si>
   <si>
     <t>BE_IND_15</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_13</t>
+  </si>
+  <si>
+    <t>BE_IND_13</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_67</t>
+  </si>
+  <si>
+    <t>BE_IND_67</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_91</t>
+  </si>
+  <si>
+    <t>BE_IND_91</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_93</t>
+  </si>
+  <si>
+    <t>BE_IND_93</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_121</t>
+  </si>
+  <si>
+    <t>BE_IND_121</t>
   </si>
 </sst>
 </file>
@@ -1477,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,16 +1709,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,16 +1726,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,16 +1743,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,16 +1760,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,16 +1777,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,16 +1794,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,16 +1811,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,16 +1828,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1815,16 +1845,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,16 +1862,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,33 +1879,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,16 +1913,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,16 +1930,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,16 +1947,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,16 +1964,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,16 +1981,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,16 +1998,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,16 +2015,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,16 +2032,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2049,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,16 +2066,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,16 +2083,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2070,16 +2100,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,16 +2117,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,16 +2134,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,16 +2151,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,16 +2168,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,16 +2185,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,16 +2202,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,16 +2219,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,16 +2236,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2223,16 +2253,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2240,16 +2270,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,16 +2287,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2274,16 +2304,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,16 +2321,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,16 +2338,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,16 +2355,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,16 +2372,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,16 +2389,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,16 +2406,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,16 +2423,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2410,16 +2440,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,16 +2457,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2444,16 +2474,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,16 +2491,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,16 +2508,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,16 +2525,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2512,16 +2542,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,16 +2559,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,16 +2576,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,16 +2593,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,16 +2610,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2597,16 +2627,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,16 +2644,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,16 +2661,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2648,16 +2678,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2665,16 +2695,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,16 +2712,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,16 +2729,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,16 +2746,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,16 +2763,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2750,16 +2780,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,16 +2797,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,16 +2814,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,16 +2831,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2818,16 +2848,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,16 +2865,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,16 +2882,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>123</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,16 +2899,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,16 +2916,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2903,16 +2933,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,16 +2950,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2937,16 +2967,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,16 +2984,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,16 +3001,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,16 +3018,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3005,16 +3035,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3022,16 +3052,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,16 +3069,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,16 +3086,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,16 +3103,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3090,16 +3120,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,16 +3137,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,16 +3154,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,16 +3171,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C98" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,16 +3188,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3175,16 +3205,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,16 +3222,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3209,16 +3239,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,16 +3256,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3243,16 +3273,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,16 +3290,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,16 +3307,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3294,16 +3324,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3311,15 +3341,100 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>233</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" t="s">
+        <v>234</v>
+      </c>
+      <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
         <v>236</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C113" t="s">
         <v>236</v>
       </c>
-      <c r="E108" t="s">
-        <v>30</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3334,7 +3449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="270">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -807,6 +807,54 @@
   </si>
   <si>
     <t>BE_IND_121</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_11</t>
+  </si>
+  <si>
+    <t>BE_IND_11</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_20</t>
+  </si>
+  <si>
+    <t>BE_IND_20</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_49</t>
+  </si>
+  <si>
+    <t>BE_IND_49</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_50</t>
+  </si>
+  <si>
+    <t>BE_IND_50</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_57</t>
+  </si>
+  <si>
+    <t>BE_IND_57</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_119</t>
+  </si>
+  <si>
+    <t>BE_IND_119</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_210</t>
+  </si>
+  <si>
+    <t>BE_IND_210</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_214</t>
+  </si>
+  <si>
+    <t>BE_IND_214</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80:F81"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,16 +1757,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,16 +1774,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,16 +1791,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,16 +1808,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,16 +1825,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,16 +1842,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,16 +1859,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,16 +1876,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,16 +1893,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1862,16 +1910,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,16 +1927,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1896,101 +1944,101 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1998,16 +2046,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,16 +2063,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,16 +2080,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,16 +2097,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,16 +2114,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2083,16 +2131,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,16 +2148,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2117,16 +2165,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,16 +2182,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,16 +2199,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2168,16 +2216,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,16 +2233,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,16 +2250,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,16 +2267,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,16 +2284,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2253,16 +2301,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,16 +2318,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,16 +2335,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,16 +2352,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,16 +2369,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,16 +2386,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,16 +2403,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2372,16 +2420,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2389,16 +2437,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,16 +2454,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2423,16 +2471,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2440,16 +2488,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2457,16 +2505,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2474,16 +2522,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,16 +2539,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2508,16 +2556,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,16 +2573,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2542,16 +2590,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,16 +2607,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2576,16 +2624,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2593,16 +2641,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2610,16 +2658,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,16 +2675,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,16 +2692,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2661,16 +2709,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2678,16 +2726,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,16 +2743,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,16 +2760,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,16 +2777,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2746,16 +2794,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2763,16 +2811,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2780,16 +2828,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2797,16 +2845,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,16 +2862,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,16 +2879,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2848,16 +2896,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2865,16 +2913,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2882,16 +2930,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2899,16 +2947,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,16 +2964,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,16 +2981,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2950,16 +2998,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,16 +3015,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2984,16 +3032,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,16 +3049,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,16 +3066,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,16 +3083,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,16 +3100,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,16 +3117,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,16 +3134,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3103,16 +3151,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3120,16 +3168,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3137,16 +3185,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,16 +3202,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3171,16 +3219,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,16 +3236,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,16 +3253,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,16 +3270,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,16 +3287,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,16 +3304,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C103" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,16 +3321,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,16 +3338,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,16 +3355,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3324,16 +3372,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3341,16 +3389,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,16 +3406,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,16 +3423,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3392,16 +3440,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,16 +3457,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C112" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,15 +3474,151 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" t="s">
+        <v>266</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
+        <v>230</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" t="s">
+        <v>268</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" t="s">
+        <v>233</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" t="s">
+        <v>234</v>
+      </c>
+      <c r="E119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" t="s">
+        <v>235</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
         <v>236</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C121" t="s">
         <v>236</v>
       </c>
-      <c r="E113" t="s">
-        <v>30</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" t="s">
         <v>150</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="268">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -807,12 +807,6 @@
   </si>
   <si>
     <t>BE_IND_121</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_11</t>
-  </si>
-  <si>
-    <t>BE_IND_11</t>
   </si>
   <si>
     <t>COUNTERPARTY_BIB_IND_20</t>
@@ -1555,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,16 +1751,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,16 +1768,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,16 +1785,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,16 +1802,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,16 +1819,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,16 +1836,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,16 +1853,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1876,16 +1870,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1893,16 +1887,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,16 +1904,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,16 +1921,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,16 +1955,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,16 +1972,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1995,16 +1989,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,33 +2006,33 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,16 +2040,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2063,16 +2057,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,16 +2074,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,16 +2091,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,16 +2108,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,16 +2125,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2148,16 +2142,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2165,16 +2159,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2182,16 +2176,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,16 +2193,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,16 +2210,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,16 +2227,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2250,16 +2244,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,16 +2261,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,16 +2278,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2301,16 +2295,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,16 +2312,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,16 +2329,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2352,16 +2346,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,16 +2363,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2386,16 +2380,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2403,16 +2397,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2420,16 +2414,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,16 +2431,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2454,16 +2448,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,16 +2465,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2488,16 +2482,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2505,16 +2499,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2522,16 +2516,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,16 +2533,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2556,16 +2550,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2573,16 +2567,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2590,16 +2584,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2607,16 +2601,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,16 +2618,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,16 +2635,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2658,16 +2652,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,16 +2669,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,16 +2686,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,16 +2703,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2726,16 +2720,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2743,16 +2737,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2760,16 +2754,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,16 +2771,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2794,16 +2788,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,16 +2805,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2828,16 +2822,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2845,16 +2839,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2862,16 +2856,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2879,16 +2873,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,16 +2890,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2913,16 +2907,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,16 +2924,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,16 +2958,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,16 +2975,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2998,16 +2992,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,16 +3009,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3032,16 +3026,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3049,16 +3043,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3066,16 +3060,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3083,16 +3077,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,16 +3094,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,16 +3111,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,16 +3128,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,16 +3145,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3168,16 +3162,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3185,16 +3179,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3202,16 +3196,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3219,16 +3213,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3236,16 +3230,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,16 +3247,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3270,16 +3264,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,16 +3281,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,16 +3298,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,16 +3315,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,16 +3332,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,16 +3349,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3372,16 +3366,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3389,16 +3383,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C108" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3406,16 +3400,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3423,16 +3417,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,16 +3434,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3457,16 +3451,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3474,16 +3468,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C113" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,16 +3485,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,16 +3502,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,16 +3519,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="E116" t="s">
         <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3542,16 +3536,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="E117" t="s">
         <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,16 +3553,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E118" t="s">
         <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3576,16 +3570,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E119" t="s">
         <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3593,32 +3587,15 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E120" t="s">
         <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B121" t="s">
-        <v>236</v>
-      </c>
-      <c r="C121" t="s">
-        <v>236</v>
-      </c>
-      <c r="E121" t="s">
-        <v>30</v>
-      </c>
-      <c r="F121" t="s">
         <v>150</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="271">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -849,6 +849,15 @@
   </si>
   <si>
     <t>BE_IND_214</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_11</t>
+  </si>
+  <si>
+    <t>BE_IND_11</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,19 +1757,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,16 +1777,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,16 +1794,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1802,16 +1811,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,16 +1828,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,16 +1845,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,16 +1862,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,16 +1879,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,16 +1896,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,16 +1913,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1921,16 +1930,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,16 +1947,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,16 +1964,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,16 +1981,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,16 +1998,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,33 +2015,33 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
         <v>260</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>260</v>
       </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,16 +2049,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,16 +2066,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,16 +2083,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,16 +2100,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,16 +2117,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2125,16 +2134,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2142,16 +2151,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,16 +2168,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2176,16 +2185,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,16 +2202,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,16 +2219,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,16 +2236,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2244,16 +2253,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,16 +2270,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2278,16 +2287,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,16 +2304,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2312,16 +2321,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2329,16 +2338,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2346,16 +2355,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,16 +2372,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,16 +2389,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,16 +2406,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,16 +2423,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,16 +2440,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,16 +2457,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,16 +2474,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2482,16 +2491,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,16 +2508,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2516,16 +2525,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2533,16 +2542,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2550,16 +2559,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,16 +2576,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,16 +2593,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,16 +2610,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2618,16 +2627,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,16 +2644,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,16 +2661,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,16 +2678,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2686,16 +2695,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,16 +2712,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2720,16 +2729,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2737,16 +2746,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,16 +2763,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,16 +2780,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,16 +2797,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,16 +2814,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2822,16 +2831,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,16 +2848,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,16 +2865,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2873,16 +2882,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2890,16 +2899,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,16 +2916,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2924,16 +2933,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,16 +2950,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2958,16 +2967,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,16 +2984,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,16 +3001,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3009,16 +3018,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,16 +3035,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3043,16 +3052,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3060,16 +3069,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3077,16 +3086,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,16 +3103,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,16 +3120,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,16 +3137,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,16 +3154,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3162,16 +3171,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3179,16 +3188,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,16 +3205,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,16 +3222,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3230,16 +3239,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3247,16 +3256,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,16 +3273,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3281,16 +3290,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3298,16 +3307,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,16 +3324,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,16 +3341,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,16 +3358,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,16 +3375,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,16 +3392,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,16 +3409,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,16 +3426,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,16 +3443,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3451,16 +3460,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C112" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3468,16 +3477,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,16 +3494,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,16 +3511,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,16 +3528,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="E116" t="s">
         <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3536,16 +3545,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="E117" t="s">
         <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,16 +3562,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118" t="s">
         <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3570,16 +3579,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119" t="s">
         <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3587,15 +3596,32 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" t="s">
+        <v>235</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
         <v>236</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>236</v>
       </c>
-      <c r="E120" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" t="s">
         <v>150</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -864,10 +864,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -931,15 +938,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,7 +1569,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,8 +3005,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>20</v>
+      <c r="A85" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="B85" t="s">
         <v>262</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -864,10 +864,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -931,15 +938,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1765,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>269</v>
@@ -2997,8 +3005,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>20</v>
+      <c r="A85" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="B85" t="s">
         <v>262</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="270">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -849,9 +849,6 @@
   </si>
   <si>
     <t>BE_IND_214</t>
-  </si>
-  <si>
-    <t>DELETE</t>
   </si>
   <si>
     <t>COUNTERPARTY_BIB_IND_11</t>
@@ -864,17 +861,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -938,16 +928,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1568,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,19 +1754,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>268</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
         <v>269</v>
-      </c>
-      <c r="C12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3005,8 +2994,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>268</v>
+      <c r="A85" t="s">
+        <v>20</v>
       </c>
       <c r="B85" t="s">
         <v>262</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="260">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -245,9 +245,6 @@
     <t>BE_IND_58</t>
   </si>
   <si>
-    <t>BE_IND_59</t>
-  </si>
-  <si>
     <t>BE_IND_60</t>
   </si>
   <si>
@@ -398,12 +395,6 @@
     <t>BE_IND_116</t>
   </si>
   <si>
-    <t>BE_IND_118</t>
-  </si>
-  <si>
-    <t>BE_IND_120</t>
-  </si>
-  <si>
     <t>BE_IND_124</t>
   </si>
   <si>
@@ -503,9 +494,6 @@
     <t>COUNTERPARTY_BIB_IND_58</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIB_IND_59</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_IND_60</t>
   </si>
   <si>
@@ -656,12 +644,6 @@
     <t>COUNTERPARTY_BIB_IND_116</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIB_IND_118</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_120</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_IND_124</t>
   </si>
   <si>
@@ -803,12 +785,6 @@
     <t>BE_IND_93</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIB_IND_121</t>
-  </si>
-  <si>
-    <t>BE_IND_121</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_IND_20</t>
   </si>
   <si>
@@ -831,12 +807,6 @@
   </si>
   <si>
     <t>BE_IND_57</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_119</t>
-  </si>
-  <si>
-    <t>BE_IND_119</t>
   </si>
   <si>
     <t>COUNTERPARTY_BIB_IND_210</t>
@@ -1528,10 +1498,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1540,10 +1510,10 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1555,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,16 +1608,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,16 +1727,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,16 +1744,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,16 +1778,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,16 +1812,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,16 +1914,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,16 +1931,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2029,16 +1999,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,10 +2016,10 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
@@ -2063,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
@@ -2080,10 +2050,10 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -2097,10 +2067,10 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -2114,10 +2084,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
@@ -2131,10 +2101,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
@@ -2148,10 +2118,10 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
@@ -2165,16 +2135,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2182,16 +2152,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,10 +2169,10 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
@@ -2216,10 +2186,10 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -2233,10 +2203,10 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
@@ -2250,10 +2220,10 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
@@ -2267,10 +2237,10 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
@@ -2284,10 +2254,10 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
@@ -2301,10 +2271,10 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
@@ -2318,10 +2288,10 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
@@ -2335,10 +2305,10 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -2352,10 +2322,10 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
@@ -2369,10 +2339,10 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
@@ -2386,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
@@ -2403,10 +2373,10 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
@@ -2420,10 +2390,10 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
@@ -2437,10 +2407,10 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
@@ -2454,10 +2424,10 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
@@ -2471,10 +2441,10 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
@@ -2488,10 +2458,10 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
@@ -2505,10 +2475,10 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
@@ -2522,10 +2492,10 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
@@ -2539,16 +2509,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2556,16 +2526,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2573,16 +2543,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2590,16 +2560,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2607,10 +2577,10 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
@@ -2624,10 +2594,10 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
@@ -2641,10 +2611,10 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
@@ -2658,10 +2628,10 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
@@ -2675,10 +2645,10 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
@@ -2692,10 +2662,10 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
@@ -2709,10 +2679,10 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
@@ -2726,10 +2696,10 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -2743,10 +2713,10 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
@@ -2760,10 +2730,10 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
@@ -2777,10 +2747,10 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
@@ -2794,10 +2764,10 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
@@ -2811,10 +2781,10 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
@@ -2828,10 +2798,10 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
@@ -2845,10 +2815,10 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
@@ -2862,10 +2832,10 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
@@ -2879,10 +2849,10 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -2896,10 +2866,10 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -2913,10 +2883,10 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -2930,10 +2900,10 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
@@ -2947,10 +2917,10 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
@@ -2964,10 +2934,10 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -2981,10 +2951,10 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
@@ -2994,20 +2964,20 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,16 +2985,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3032,16 +3002,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3049,16 +3019,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3066,16 +3036,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3083,16 +3053,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,16 +3070,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,16 +3087,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,16 +3104,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,16 +3121,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3168,16 +3138,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3185,16 +3155,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3202,16 +3172,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3219,16 +3189,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3236,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,16 +3223,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3270,16 +3240,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,16 +3257,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,16 +3274,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,16 +3291,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,16 +3308,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,16 +3325,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3372,16 +3342,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3389,16 +3359,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3406,16 +3376,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C109" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3423,16 +3393,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,16 +3410,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C111" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3457,16 +3427,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3474,16 +3444,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>265</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,16 +3461,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,16 +3478,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,101 +3495,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E116" t="s">
         <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" t="s">
-        <v>266</v>
-      </c>
-      <c r="C117" t="s">
-        <v>266</v>
-      </c>
-      <c r="E117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" t="s">
-        <v>233</v>
-      </c>
-      <c r="C118" t="s">
-        <v>233</v>
-      </c>
-      <c r="E118" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" t="s">
-        <v>234</v>
-      </c>
-      <c r="C119" t="s">
-        <v>234</v>
-      </c>
-      <c r="E119" t="s">
-        <v>30</v>
-      </c>
-      <c r="F119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B120" t="s">
-        <v>235</v>
-      </c>
-      <c r="C120" t="s">
-        <v>235</v>
-      </c>
-      <c r="E120" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B121" t="s">
-        <v>236</v>
-      </c>
-      <c r="C121" t="s">
-        <v>236</v>
-      </c>
-      <c r="E121" t="s">
-        <v>30</v>
-      </c>
-      <c r="F121" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="262">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -825,6 +825,12 @@
   </si>
   <si>
     <t>BE_IND_11</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_73</t>
+  </si>
+  <si>
+    <t>BE_IND_73</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,16 +2226,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,16 +2243,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2254,16 +2260,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,16 +2277,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2288,16 +2294,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,16 +2311,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,16 +2328,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2339,16 +2345,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,16 +2362,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2373,16 +2379,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2390,16 +2396,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,16 +2413,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2424,16 +2430,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,16 +2447,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2458,16 +2464,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2475,16 +2481,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2492,16 +2498,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,16 +2515,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>243</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,16 +2532,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2543,16 +2549,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,16 +2566,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2577,16 +2583,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,16 +2600,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,16 +2617,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,16 +2634,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2645,16 +2651,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2662,16 +2668,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,16 +2685,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,16 +2702,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,16 +2719,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,16 +2736,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2747,16 +2753,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,16 +2770,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,16 +2787,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2798,16 +2804,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,16 +2821,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,16 +2838,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,16 +2855,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2866,16 +2872,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,16 +2889,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,16 +2906,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,16 +2923,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,16 +2940,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,16 +2957,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,16 +2974,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,16 +2991,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,16 +3008,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,16 +3025,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,16 +3042,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,16 +3059,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,16 +3076,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,16 +3093,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,16 +3110,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,16 +3127,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,16 +3144,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,16 +3161,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,16 +3178,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3189,16 +3195,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3206,16 +3212,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,16 +3229,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,16 +3246,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3257,16 +3263,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,16 +3280,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,16 +3297,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3308,16 +3314,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,16 +3331,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3342,16 +3348,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,16 +3365,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,16 +3382,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3393,16 +3399,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,16 +3416,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,16 +3433,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,16 +3450,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="C113" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,16 +3467,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3478,16 +3484,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,15 +3501,32 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" t="s">
+        <v>229</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
         <v>230</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>230</v>
       </c>
-      <c r="E116" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3518,7 +3541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noemi.careddu\Desktop\Noemi\EW_BIB\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="2"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="260">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -825,12 +825,6 @@
   </si>
   <si>
     <t>BE_IND_11</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_73</t>
-  </si>
-  <si>
-    <t>BE_IND_73</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,16 +2220,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2243,16 +2237,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,16 +2254,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2277,16 +2271,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2294,16 +2288,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,16 +2305,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,16 +2322,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,16 +2339,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2362,16 +2356,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2379,16 +2373,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2396,16 +2390,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,16 +2407,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2430,16 +2424,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,16 +2441,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2464,16 +2458,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,16 +2475,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2498,16 +2492,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,16 +2509,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2532,16 +2526,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2549,16 +2543,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,16 +2560,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2583,16 +2577,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2600,16 +2594,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2617,16 +2611,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2634,16 +2628,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,16 +2645,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,16 +2662,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2685,16 +2679,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2702,16 +2696,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,16 +2713,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,16 +2730,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,16 +2747,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2770,16 +2764,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2787,16 +2781,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2804,16 +2798,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2821,16 +2815,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2838,16 +2832,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,16 +2849,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,16 +2866,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,16 +2883,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2906,16 +2900,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,16 +2917,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2940,16 +2934,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2957,16 +2951,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2974,16 +2968,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,16 +2985,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3008,16 +3002,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,16 +3019,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3042,16 +3036,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3059,16 +3053,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3076,16 +3070,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3093,16 +3087,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,16 +3104,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,16 +3121,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,16 +3138,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,16 +3155,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,16 +3172,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,16 +3189,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3212,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3229,16 +3223,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,16 +3240,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3263,16 +3257,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,16 +3274,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3297,16 +3291,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3314,16 +3308,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,16 +3325,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3348,16 +3342,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,16 +3359,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3382,16 +3376,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="C109" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,16 +3393,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3416,16 +3410,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3433,16 +3427,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3450,16 +3444,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3467,16 +3461,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,16 +3478,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3501,32 +3495,15 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E116" t="s">
         <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" t="s">
-        <v>230</v>
-      </c>
-      <c r="C117" t="s">
-        <v>230</v>
-      </c>
-      <c r="E117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3541,7 +3518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="261">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -825,6 +825,9 @@
   </si>
   <si>
     <t>BE_IND_11</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1897,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -1911,7 +1914,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
         <v>248</v>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
         <v>250</v>
@@ -2489,7 +2492,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
         <v>175</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B58" t="s">
         <v>242</v>
@@ -2523,7 +2526,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B59" t="s">
         <v>176</v>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
         <v>244</v>
@@ -2642,7 +2645,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s">
         <v>182</v>
@@ -2659,7 +2662,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
         <v>183</v>
@@ -3518,7 +3521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="263">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -828,6 +828,12 @@
   </si>
   <si>
     <t>DELETE</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_219</t>
+  </si>
+  <si>
+    <t>BE_IND_219</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,6 +3516,23 @@
         <v>147</v>
       </c>
     </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" t="s">
+        <v>261</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3521,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="244">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -176,9 +176,6 @@
     <t>BE_IND_44</t>
   </si>
   <si>
-    <t>BE_IND_48</t>
-  </si>
-  <si>
     <t>BE_IND_51</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>COUNTERPARTY_BIB_IND_44</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIB_IND_48</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_IND_51</t>
   </si>
   <si>
@@ -323,12 +317,6 @@
     <t>BE_IND_89</t>
   </si>
   <si>
-    <t>BE_IND_90</t>
-  </si>
-  <si>
-    <t>BE_IND_92</t>
-  </si>
-  <si>
     <t>BE_IND_94</t>
   </si>
   <si>
@@ -344,12 +332,6 @@
     <t>BE_IND_98</t>
   </si>
   <si>
-    <t>BE_IND_99</t>
-  </si>
-  <si>
-    <t>BE_IND_100</t>
-  </si>
-  <si>
     <t>BE_IND_102</t>
   </si>
   <si>
@@ -572,12 +554,6 @@
     <t>COUNTERPARTY_BIB_IND_89</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIB_IND_90</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_92</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_IND_94</t>
   </si>
   <si>
@@ -593,12 +569,6 @@
     <t>COUNTERPARTY_BIB_IND_98</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIB_IND_99</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_100</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_IND_102</t>
   </si>
   <si>
@@ -773,36 +743,12 @@
     <t>BE_IND_67</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIB_IND_91</t>
-  </si>
-  <si>
-    <t>BE_IND_91</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_93</t>
-  </si>
-  <si>
-    <t>BE_IND_93</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_IND_20</t>
   </si>
   <si>
     <t>BE_IND_20</t>
   </si>
   <si>
-    <t>COUNTERPARTY_BIB_IND_49</t>
-  </si>
-  <si>
-    <t>BE_IND_49</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_50</t>
-  </si>
-  <si>
-    <t>BE_IND_50</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_IND_57</t>
   </si>
   <si>
@@ -825,9 +771,6 @@
   </si>
   <si>
     <t>BE_IND_11</t>
-  </si>
-  <si>
-    <t>DELETE</t>
   </si>
   <si>
     <t>COUNTERPARTY_BIB_IND_219</t>
@@ -1440,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1507,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1519,10 +1462,10 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1534,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,10 +1526,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -1600,10 +1543,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -1617,16 +1560,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,10 +1577,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1651,10 +1594,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -1668,10 +1611,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -1685,10 +1628,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -1702,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -1719,10 +1662,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -1736,16 +1679,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,16 +1696,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,10 +1713,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1787,16 +1730,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,10 +1747,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -1821,16 +1764,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,10 +1781,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -1855,10 +1798,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -1872,10 +1815,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
@@ -1889,10 +1832,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -1903,13 +1846,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -1920,36 +1863,36 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,67 +1900,67 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,16 +1968,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2042,16 +1985,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,16 +2002,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,16 +2019,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,16 +2036,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,10 +2053,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
@@ -2127,10 +2070,10 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
@@ -2144,16 +2087,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2161,16 +2104,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,16 +2121,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,16 +2138,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,16 +2155,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,16 +2172,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2246,16 +2189,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2263,16 +2206,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2280,16 +2223,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,16 +2240,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,16 +2257,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,16 +2274,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2348,16 +2291,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,16 +2308,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,16 +2325,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,16 +2342,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2416,16 +2359,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2433,16 +2376,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2450,16 +2393,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,16 +2410,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2484,84 +2427,84 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,16 +2512,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,16 +2529,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2603,16 +2546,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2620,16 +2563,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2637,50 +2580,50 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,16 +2631,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2705,16 +2648,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2722,16 +2665,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,16 +2682,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2756,16 +2699,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2773,16 +2716,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2790,16 +2733,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2807,16 +2750,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2824,16 +2767,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,16 +2784,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2858,16 +2801,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,16 +2818,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2892,16 +2835,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2909,16 +2852,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2926,16 +2869,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,16 +2886,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2960,16 +2903,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2977,16 +2920,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2994,16 +2937,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3011,16 +2954,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,16 +2971,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,16 +2988,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3062,16 +3005,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,16 +3022,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3096,16 +3039,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,16 +3056,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,16 +3073,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3147,16 +3090,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,16 +3107,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3181,16 +3124,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,16 +3141,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,16 +3158,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,16 +3175,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3249,16 +3192,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3266,16 +3209,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3283,16 +3226,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,16 +3243,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3317,16 +3260,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3334,16 +3277,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3351,16 +3294,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3368,169 +3311,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" t="s">
-        <v>224</v>
-      </c>
-      <c r="C109" t="s">
-        <v>224</v>
-      </c>
-      <c r="E109" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" t="s">
-        <v>225</v>
-      </c>
-      <c r="E110" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B111" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111" t="s">
-        <v>226</v>
-      </c>
-      <c r="E111" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" t="s">
-        <v>256</v>
-      </c>
-      <c r="C112" t="s">
-        <v>256</v>
-      </c>
-      <c r="E112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
-      <c r="C113" t="s">
-        <v>227</v>
-      </c>
-      <c r="E113" t="s">
-        <v>30</v>
-      </c>
-      <c r="F113" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" t="s">
-        <v>228</v>
-      </c>
-      <c r="E114" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" t="s">
-        <v>229</v>
-      </c>
-      <c r="C115" t="s">
-        <v>229</v>
-      </c>
-      <c r="E115" t="s">
-        <v>30</v>
-      </c>
-      <c r="F115" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" t="s">
-        <v>230</v>
-      </c>
-      <c r="E116" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" t="s">
-        <v>261</v>
-      </c>
-      <c r="C117" t="s">
-        <v>261</v>
-      </c>
-      <c r="E117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="242">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -747,12 +747,6 @@
   </si>
   <si>
     <t>BE_IND_20</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_57</t>
-  </si>
-  <si>
-    <t>BE_IND_57</t>
   </si>
   <si>
     <t>COUNTERPARTY_BIB_IND_210</t>
@@ -1383,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1477,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A22:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,16 +1673,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1896,20 +1890,20 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,16 +1911,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,16 +1928,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,16 +1945,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,16 +1962,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,16 +1979,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,16 +1996,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2013,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,16 +2030,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,16 +2047,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2070,16 +2064,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,16 +2081,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,16 +2098,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,16 +2115,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,16 +2132,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,16 +2149,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,16 +2166,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,16 +2183,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,16 +2200,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2223,16 +2217,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2240,16 +2234,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,16 +2251,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2274,16 +2268,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,16 +2285,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,16 +2302,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,16 +2319,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,16 +2336,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,16 +2353,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,16 +2370,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,16 +2387,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2410,16 +2404,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,16 +2421,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2444,16 +2438,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,16 +2455,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,16 +2472,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,16 +2489,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2512,16 +2506,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,16 +2523,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,16 +2540,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,16 +2557,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,16 +2574,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2597,16 +2591,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,16 +2608,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,16 +2625,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2648,16 +2642,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2665,16 +2659,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,16 +2676,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,16 +2693,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,16 +2710,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,16 +2727,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2750,16 +2744,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,16 +2761,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,16 +2778,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,16 +2795,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2818,16 +2812,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,16 +2829,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,16 +2846,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,16 +2863,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E82" t="s">
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,16 +2880,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2903,16 +2897,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,16 +2914,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2937,16 +2931,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,16 +2948,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,16 +2965,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,16 +2982,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3005,16 +2999,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3022,16 +3016,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,16 +3033,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,16 +3050,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,16 +3067,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3090,16 +3084,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,16 +3101,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,16 +3118,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,16 +3135,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,16 +3152,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3175,16 +3169,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,16 +3186,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3209,16 +3203,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3243,16 +3237,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,16 +3254,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,16 +3271,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3294,33 +3288,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B108" t="s">
-        <v>242</v>
-      </c>
-      <c r="C108" t="s">
-        <v>242</v>
-      </c>
-      <c r="E108" t="s">
-        <v>30</v>
-      </c>
-      <c r="F108" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giustino.matteo\Desktop\Progetto Early Warning\Materials_For_3DayTraining\Git\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="246">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -710,9 +710,6 @@
     <t>COUNTERPARTY_BIB_IND_218</t>
   </si>
   <si>
-    <t>LIB_EWS_BE.ExternalInfo();</t>
-  </si>
-  <si>
     <t>Counterparty BIB</t>
   </si>
   <si>
@@ -771,13 +768,28 @@
   </si>
   <si>
     <t>BE_IND_219</t>
+  </si>
+  <si>
+    <t>TeradataSchema</t>
+  </si>
+  <si>
+    <t>TEWSA0D</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_EXPOSURE</t>
+  </si>
+  <si>
+    <t>LIB_EWS_BE.ExternalInfo(Param1);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -819,6 +831,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Trebuchet MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -846,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -854,6 +872,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1415,7 @@
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1406,8 +1427,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1435,8 +1457,11 @@
       <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1444,10 +1469,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1456,10 +1481,13 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
-        <v>221</v>
+        <v>245</v>
+      </c>
+      <c r="J3" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,16 +1582,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,16 +1701,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
         <v>238</v>
-      </c>
-      <c r="C12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1690,16 +1718,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
         <v>228</v>
-      </c>
-      <c r="C13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,16 +1752,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
         <v>226</v>
-      </c>
-      <c r="C15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,16 +1786,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>232</v>
-      </c>
-      <c r="C17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,16 +2041,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
         <v>230</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,16 +3163,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" t="s">
         <v>234</v>
-      </c>
-      <c r="C98" t="s">
-        <v>234</v>
-      </c>
-      <c r="E98" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,16 +3231,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
         <v>236</v>
-      </c>
-      <c r="C102" t="s">
-        <v>236</v>
-      </c>
-      <c r="E102" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,16 +3316,33 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
         <v>240</v>
       </c>
-      <c r="C107" t="s">
-        <v>240</v>
-      </c>
-      <c r="E107" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" t="s">
-        <v>241</v>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
